--- a/prodinfo/test/debug/output/res20260123.xlsx
+++ b/prodinfo/test/debug/output/res20260123.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-23 02:06:28</v>
+        <v>2026-01-23 05:30:29</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -445,12 +445,12 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>477</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-23 02:06:33</v>
+        <v>2026-01-23 05:30:35</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -468,12 +468,12 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>477</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-23 02:06:39</v>
+        <v>2026-01-23 05:30:38</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
@@ -491,12 +491,12 @@
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>477</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-23 02:06:45</v>
+        <v>2026-01-23 05:30:41</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
@@ -514,12 +514,12 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>477</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-23 02:06:51</v>
+        <v>2026-01-23 05:30:47</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
@@ -537,12 +537,12 @@
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>608</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-23 02:06:56</v>
+        <v>2026-01-23 05:30:50</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
@@ -560,12 +560,12 @@
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>608</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-23 02:07:01</v>
+        <v>2026-01-23 05:30:53</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
@@ -583,12 +583,12 @@
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>608</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-23 02:07:04</v>
+        <v>2026-01-23 05:30:57</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
@@ -606,12 +606,12 @@
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>408</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-23 02:07:09</v>
+        <v>2026-01-23 05:31:02</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
@@ -629,12 +629,12 @@
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>408</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-23 02:07:14</v>
+        <v>2026-01-23 05:31:08</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
@@ -652,12 +652,12 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>408</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-23 02:07:19</v>
+        <v>2026-01-23 05:31:11</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
@@ -675,12 +675,12 @@
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-23 02:07:25</v>
+        <v>2026-01-23 05:31:15</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
@@ -698,12 +698,12 @@
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>373</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-23 02:07:29</v>
+        <v>2026-01-23 05:31:20</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
@@ -721,12 +721,12 @@
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-23 02:07:37</v>
+        <v>2026-01-23 05:31:22</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
@@ -744,12 +744,12 @@
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-23 02:07:42</v>
+        <v>2026-01-23 05:31:26</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
@@ -767,12 +767,12 @@
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-23 02:07:49</v>
+        <v>2026-01-23 05:31:32</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
@@ -790,12 +790,12 @@
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-23 02:07:58</v>
+        <v>2026-01-23 05:31:37</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
@@ -813,12 +813,12 @@
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>321</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-23 02:08:03</v>
+        <v>2026-01-23 05:31:40</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
@@ -836,12 +836,12 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>321</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-23 02:08:07</v>
+        <v>2026-01-23 05:31:46</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
@@ -859,12 +859,12 @@
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-23 02:08:11</v>
+        <v>2026-01-23 05:31:49</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
@@ -882,12 +882,12 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-01-23 02:08:17</v>
+        <v>2026-01-23 05:31:54</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
@@ -905,12 +905,12 @@
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2026-01-23 02:08:22</v>
+        <v>2026-01-23 05:31:59</v>
       </c>
       <c r="B23" t="str">
         <v>沙特</v>
@@ -928,12 +928,12 @@
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-01-23 02:08:29</v>
+        <v>2026-01-23 05:32:05</v>
       </c>
       <c r="B24" t="str">
         <v>沙特</v>
@@ -951,12 +951,12 @@
         <v/>
       </c>
       <c r="G24" t="str">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-01-23 02:08:34</v>
+        <v>2026-01-23 05:32:07</v>
       </c>
       <c r="B25" t="str">
         <v>沙特</v>
@@ -974,12 +974,12 @@
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-01-23 02:08:41</v>
+        <v>2026-01-23 05:32:11</v>
       </c>
       <c r="B26" t="str">
         <v>沙特</v>
@@ -997,12 +997,12 @@
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2026-01-23 02:08:47</v>
+        <v>2026-01-23 05:32:14</v>
       </c>
       <c r="B27" t="str">
         <v>沙特</v>
@@ -1020,12 +1020,12 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>1130</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-01-23 02:08:54</v>
+        <v>2026-01-23 05:32:20</v>
       </c>
       <c r="B28" t="str">
         <v>沙特</v>
@@ -1043,12 +1043,12 @@
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>1130</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2026-01-23 02:09:01</v>
+        <v>2026-01-23 05:32:22</v>
       </c>
       <c r="B29" t="str">
         <v>沙特</v>
@@ -1066,12 +1066,12 @@
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>1130</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2026-01-23 02:09:04</v>
+        <v>2026-01-23 05:32:27</v>
       </c>
       <c r="B30" t="str">
         <v>沙特</v>
@@ -1089,12 +1089,12 @@
         <v/>
       </c>
       <c r="G30" t="str">
-        <v>1130</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2026-01-23 02:09:10</v>
+        <v>2026-01-23 05:32:31</v>
       </c>
       <c r="B31" t="str">
         <v>沙特</v>
@@ -1112,12 +1112,12 @@
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>1130</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2026-01-23 02:09:17</v>
+        <v>2026-01-23 05:32:37</v>
       </c>
       <c r="B32" t="str">
         <v>沙特</v>
@@ -1135,12 +1135,12 @@
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>434</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2026-01-23 02:09:25</v>
+        <v>2026-01-23 05:32:41</v>
       </c>
       <c r="B33" t="str">
         <v>沙特</v>
@@ -1158,12 +1158,12 @@
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>434</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2026-01-23 02:09:31</v>
+        <v>2026-01-23 05:32:46</v>
       </c>
       <c r="B34" t="str">
         <v>沙特</v>
@@ -1181,12 +1181,12 @@
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>303</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2026-01-23 02:09:35</v>
+        <v>2026-01-23 05:32:49</v>
       </c>
       <c r="B35" t="str">
         <v>沙特</v>
@@ -1204,12 +1204,12 @@
         <v/>
       </c>
       <c r="G35" t="str">
-        <v>303</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2026-01-23 02:09:41</v>
+        <v>2026-01-23 05:32:55</v>
       </c>
       <c r="B36" t="str">
         <v>沙特</v>
@@ -1227,12 +1227,12 @@
         <v/>
       </c>
       <c r="G36" t="str">
-        <v>347</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2026-01-23 02:09:45</v>
+        <v>2026-01-23 05:33:01</v>
       </c>
       <c r="B37" t="str">
         <v>沙特</v>
@@ -1250,12 +1250,12 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>347</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2026-01-23 02:09:50</v>
+        <v>2026-01-23 05:33:11</v>
       </c>
       <c r="B38" t="str">
         <v>沙特</v>
@@ -1273,12 +1273,12 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2026-01-23 02:09:54</v>
+        <v>2026-01-23 05:33:16</v>
       </c>
       <c r="B39" t="str">
         <v>沙特</v>
@@ -1296,12 +1296,12 @@
         <v/>
       </c>
       <c r="G39" t="str">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2026-01-23 02:09:59</v>
+        <v>2026-01-23 05:33:24</v>
       </c>
       <c r="B40" t="str">
         <v>沙特</v>
@@ -1319,12 +1319,12 @@
         <v/>
       </c>
       <c r="G40" t="str">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2026-01-23 02:10:06</v>
+        <v>2026-01-23 05:33:31</v>
       </c>
       <c r="B41" t="str">
         <v>沙特</v>
@@ -1342,12 +1342,12 @@
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>564</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2026-01-23 02:10:14</v>
+        <v>2026-01-23 05:33:39</v>
       </c>
       <c r="B42" t="str">
         <v>沙特</v>
@@ -1365,12 +1365,12 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>286</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2026-01-23 02:10:20</v>
+        <v>2026-01-23 05:33:46</v>
       </c>
       <c r="B43" t="str">
         <v>沙特</v>
@@ -1388,12 +1388,12 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>286</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2026-01-23 02:10:33</v>
+        <v>2026-01-23 05:33:50</v>
       </c>
       <c r="B44" t="str">
         <v>沙特</v>
@@ -1411,12 +1411,12 @@
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>782</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2026-01-23 02:10:40</v>
+        <v>2026-01-23 05:33:57</v>
       </c>
       <c r="B45" t="str">
         <v>沙特</v>
@@ -1434,12 +1434,12 @@
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>912</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2026-01-23 02:10:44</v>
+        <v>2026-01-23 05:34:04</v>
       </c>
       <c r="B46" t="str">
         <v>沙特</v>
@@ -1457,12 +1457,12 @@
         <v/>
       </c>
       <c r="G46" t="str">
-        <v>521</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2026-01-23 02:10:47</v>
+        <v>2026-01-23 05:34:08</v>
       </c>
       <c r="B47" t="str">
         <v>沙特</v>
@@ -1480,12 +1480,12 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>721</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2026-01-23 02:10:54</v>
+        <v>2026-01-23 05:34:11</v>
       </c>
       <c r="B48" t="str">
         <v>沙特</v>
@@ -1503,12 +1503,12 @@
         <v/>
       </c>
       <c r="G48" t="str">
-        <v>782</v>
+        <v>899</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2026-01-23 02:11:00</v>
+        <v>2026-01-23 05:34:15</v>
       </c>
       <c r="B49" t="str">
         <v>沙特</v>
@@ -1526,12 +1526,12 @@
         <v/>
       </c>
       <c r="G49" t="str">
-        <v>782</v>
+        <v>899</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2026-01-23 02:11:05</v>
+        <v>2026-01-23 05:34:21</v>
       </c>
       <c r="B50" t="str">
         <v>沙特</v>
@@ -1549,12 +1549,12 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>277</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2026-01-23 02:11:12</v>
+        <v>2026-01-23 05:34:27</v>
       </c>
       <c r="B51" t="str">
         <v>沙特</v>
@@ -1572,12 +1572,12 @@
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>277</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2026-01-23 02:11:15</v>
+        <v>2026-01-23 05:34:34</v>
       </c>
       <c r="B52" t="str">
         <v>沙特</v>
@@ -1595,12 +1595,12 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <v>277</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2026-01-23 02:11:22</v>
+        <v>2026-01-23 05:34:38</v>
       </c>
       <c r="B53" t="str">
         <v>沙特</v>
@@ -1618,12 +1618,12 @@
         <v/>
       </c>
       <c r="G53" t="str">
-        <v>303</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2026-01-23 02:11:26</v>
+        <v>2026-01-23 05:34:45</v>
       </c>
       <c r="B54" t="str">
         <v>沙特</v>
@@ -1641,12 +1641,12 @@
         <v/>
       </c>
       <c r="G54" t="str">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2026-01-23 02:11:29</v>
+        <v>2026-01-23 05:34:53</v>
       </c>
       <c r="B55" t="str">
         <v>沙特</v>
@@ -1664,12 +1664,12 @@
         <v/>
       </c>
       <c r="G55" t="str">
-        <v>382</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2026-01-23 02:11:34</v>
+        <v>2026-01-23 05:34:59</v>
       </c>
       <c r="B56" t="str">
         <v>沙特</v>
@@ -1687,12 +1687,12 @@
         <v/>
       </c>
       <c r="G56" t="str">
-        <v>382</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2026-01-23 02:11:38</v>
+        <v>2026-01-23 05:35:03</v>
       </c>
       <c r="B57" t="str">
         <v>沙特</v>
@@ -1710,12 +1710,12 @@
         <v/>
       </c>
       <c r="G57" t="str">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2026-01-23 02:11:43</v>
+        <v>2026-01-23 05:35:07</v>
       </c>
       <c r="B58" t="str">
         <v>沙特</v>
@@ -1733,12 +1733,12 @@
         <v/>
       </c>
       <c r="G58" t="str">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2026-01-23 02:11:49</v>
+        <v>2026-01-23 05:35:13</v>
       </c>
       <c r="B59" t="str">
         <v>沙特</v>
@@ -1756,7 +1756,7 @@
         <v/>
       </c>
       <c r="G59" t="str">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
